--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1367"/>
+  <dimension ref="A1:H1368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35785,13 +35785,39 @@
       <c r="A1367" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
+      <c r="B1367" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1368"/>
+  <dimension ref="A1:H1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35811,13 +35811,39 @@
       <c r="A1368" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
+      <c r="B1368" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1369"/>
+  <dimension ref="A1:H1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35769,7 +35769,7 @@
         <v>13.57</v>
       </c>
       <c r="E1366" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F1366" t="n">
         <v>14.7</v>
@@ -35795,7 +35795,7 @@
         <v>14.87</v>
       </c>
       <c r="E1367" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="F1367" t="n">
         <v>15.8</v>
@@ -35837,13 +35837,39 @@
       <c r="A1369" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
+      <c r="B1369" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1371"/>
+  <dimension ref="A1:J1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44113,15 +44113,47 @@
       <c r="A1371" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-      <c r="J1371" t="inlineStr"/>
+      <c r="B1371" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>22.65875</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1372"/>
+  <dimension ref="A1:J1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44145,15 +44145,47 @@
       <c r="A1372" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-      <c r="J1372" t="inlineStr"/>
+      <c r="B1372" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>20.3725</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1373"/>
+  <dimension ref="A1:J1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44177,15 +44177,47 @@
       <c r="A1373" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-      <c r="J1373" t="inlineStr"/>
+      <c r="B1373" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>18.3725</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1374"/>
+  <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44209,15 +44209,79 @@
       <c r="A1374" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-      <c r="J1374" t="inlineStr"/>
+      <c r="B1374" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>16.80125</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>14.20125</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1376"/>
+  <dimension ref="A1:J1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44254,7 +44254,7 @@
         <v>15.2</v>
       </c>
       <c r="F1375" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="G1375" t="n">
         <v>12.6</v>
@@ -44263,25 +44263,57 @@
         <v>12.2</v>
       </c>
       <c r="I1375" t="n">
-        <v>14.2</v>
+        <v>14.19</v>
       </c>
       <c r="J1375" t="n">
-        <v>14.20125</v>
+        <v>14.1875</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-      <c r="J1376" t="inlineStr"/>
+      <c r="B1376" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>13.2725</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1377"/>
+  <dimension ref="A1:J1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44305,15 +44305,47 @@
       <c r="A1377" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-      <c r="J1377" t="inlineStr"/>
+      <c r="B1377" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>12.85875</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+      <c r="J1378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1378"/>
+  <dimension ref="A1:J1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44337,15 +44337,47 @@
       <c r="A1378" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-      <c r="J1378" t="inlineStr"/>
+      <c r="B1378" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>15.90125</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1379"/>
+  <dimension ref="A1:J1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44338,7 +44338,7 @@
         <v>45170</v>
       </c>
       <c r="B1378" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="C1378" t="n">
         <v>16.74</v>
@@ -44359,25 +44359,57 @@
         <v>15</v>
       </c>
       <c r="I1378" t="n">
-        <v>15.9</v>
+        <v>15.89</v>
       </c>
       <c r="J1378" t="n">
-        <v>15.90125</v>
+        <v>15.8875</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-      <c r="J1379" t="inlineStr"/>
+      <c r="B1379" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>17.0725</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1380"/>
+  <dimension ref="A1:J1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44401,15 +44401,47 @@
       <c r="A1380" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-      <c r="J1380" t="inlineStr"/>
+      <c r="B1380" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>18.2875</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1381"/>
+  <dimension ref="A1:J1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44433,15 +44433,47 @@
       <c r="A1381" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-      <c r="J1381" t="inlineStr"/>
+      <c r="B1381" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>20.80125</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+      <c r="J1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1382"/>
+  <dimension ref="A1:J1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44465,15 +44465,47 @@
       <c r="A1382" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-      <c r="J1382" t="inlineStr"/>
+      <c r="B1382" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>23.1725</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1383"/>
+  <dimension ref="A1:J1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44497,15 +44497,47 @@
       <c r="A1383" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-      <c r="J1383" t="inlineStr"/>
+      <c r="B1383" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>22.04375</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1384"/>
+  <dimension ref="A1:J1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44529,15 +44529,47 @@
       <c r="A1384" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-      <c r="J1384" t="inlineStr"/>
+      <c r="B1384" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>19.40125</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1385"/>
+  <dimension ref="A1:J1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43349,7 +43349,7 @@
         <v>25.1</v>
       </c>
       <c r="C1347" t="n">
-        <v>25.34</v>
+        <v>25.24</v>
       </c>
       <c r="D1347" t="n">
         <v>20.67</v>
@@ -43367,10 +43367,10 @@
         <v>19.4</v>
       </c>
       <c r="I1347" t="n">
-        <v>22.14</v>
+        <v>22.13</v>
       </c>
       <c r="J1347" t="n">
-        <v>22.14375</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="1348">
@@ -44187,7 +44187,7 @@
         <v>17.37</v>
       </c>
       <c r="E1373" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F1373" t="n">
         <v>17.9</v>
@@ -44199,10 +44199,10 @@
         <v>16.3</v>
       </c>
       <c r="I1373" t="n">
-        <v>18.37</v>
+        <v>18.39</v>
       </c>
       <c r="J1373" t="n">
-        <v>18.3725</v>
+        <v>18.3875</v>
       </c>
     </row>
     <row r="1374">
@@ -44561,15 +44561,47 @@
       <c r="A1385" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-      <c r="J1385" t="inlineStr"/>
+      <c r="B1385" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>18.1875</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+      <c r="J1386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1386"/>
+  <dimension ref="A1:J1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44593,15 +44593,47 @@
       <c r="A1386" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-      <c r="J1386" t="inlineStr"/>
+      <c r="B1386" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>14.3725</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+      <c r="J1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1387"/>
+  <dimension ref="A1:J1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44625,15 +44625,47 @@
       <c r="A1387" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-      <c r="J1387" t="inlineStr"/>
+      <c r="B1387" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>13.7875</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+      <c r="J1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1388"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44657,15 +44657,47 @@
       <c r="A1388" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-      <c r="J1388" t="inlineStr"/>
+      <c r="B1388" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>13.00125</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1389" t="inlineStr"/>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+      <c r="J1389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1389"/>
+  <dimension ref="A1:J1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44689,15 +44688,47 @@
       <c r="A1389" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-      <c r="J1389" t="inlineStr"/>
+      <c r="B1389" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>14.0725</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B1390" t="inlineStr"/>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+      <c r="J1390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1390"/>
+  <dimension ref="A1:J1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44720,15 +44720,47 @@
       <c r="A1390" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-      <c r="J1390" t="inlineStr"/>
+      <c r="B1390" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>15.54375</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1391" t="inlineStr"/>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+      <c r="J1391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1391"/>
+  <dimension ref="A1:J1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44752,15 +44752,47 @@
       <c r="A1391" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-      <c r="J1391" t="inlineStr"/>
+      <c r="B1391" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>17.01625</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1392" t="inlineStr"/>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+      <c r="J1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1392"/>
+  <dimension ref="A1:J1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +935,7 @@
         <v>15.01</v>
       </c>
       <c r="J18" t="n">
-        <v>15.01166666666667</v>
+        <v>15.01166666666666</v>
       </c>
     </row>
     <row r="19">
@@ -1187,7 +1187,7 @@
         <v>20.33</v>
       </c>
       <c r="J27" t="n">
-        <v>20.33166666666667</v>
+        <v>20.33166666666666</v>
       </c>
     </row>
     <row r="28">
@@ -3977,7 +3977,7 @@
         <v>9.52</v>
       </c>
       <c r="J116" t="n">
-        <v>9.521249999999998</v>
+        <v>9.52125</v>
       </c>
     </row>
     <row r="117">
@@ -14921,7 +14921,7 @@
         <v>19.64</v>
       </c>
       <c r="J458" t="n">
-        <v>19.63874999999999</v>
+        <v>19.63875</v>
       </c>
     </row>
     <row r="459">
@@ -15689,7 +15689,7 @@
         <v>19.83</v>
       </c>
       <c r="J482" t="n">
-        <v>19.83374999999999</v>
+        <v>19.83375</v>
       </c>
     </row>
     <row r="483">
@@ -35657,7 +35657,7 @@
         <v>20.64</v>
       </c>
       <c r="J1106" t="n">
-        <v>20.64250000000001</v>
+        <v>20.6425</v>
       </c>
     </row>
     <row r="1107">
@@ -41449,7 +41449,7 @@
         <v>24.17</v>
       </c>
       <c r="J1287" t="n">
-        <v>24.17250000000001</v>
+        <v>24.1725</v>
       </c>
     </row>
     <row r="1288">
@@ -44794,6 +44794,20 @@
       <c r="I1392" t="inlineStr"/>
       <c r="J1392" t="inlineStr"/>
     </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B1393" t="inlineStr"/>
+      <c r="C1393" t="inlineStr"/>
+      <c r="D1393" t="inlineStr"/>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="inlineStr"/>
+      <c r="H1393" t="inlineStr"/>
+      <c r="I1393" t="inlineStr"/>
+      <c r="J1393" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMax_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1393"/>
+  <dimension ref="A1:J1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44784,29 +44784,107 @@
       <c r="A1392" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-      <c r="J1392" t="inlineStr"/>
+      <c r="B1392" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>18.6725</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
+      <c r="B1393" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>23</v>
+      </c>
       <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-      <c r="J1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>21.75142857142857</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>20.35142857142857</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1395" t="inlineStr"/>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+      <c r="J1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
